--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/param.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/param.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="388">
   <si>
     <t>Parameter</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Front LVW Tire Static Loaded Rad.</t>
   </si>
   <si>
-    <t>292</t>
+    <t>292.0</t>
   </si>
   <si>
     <t>Rear LVW Tire Static Loaded Rad.</t>
@@ -174,42 +174,45 @@
     <t>Rolling Resistance</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Pedal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pedal Supplier</t>
+  </si>
+  <si>
+    <t>sanli</t>
+  </si>
+  <si>
+    <t>Pedal Ratio</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Pedal Force efficiency</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Pedal Travel Efficiency</t>
+  </si>
+  <si>
+    <t>Pedal Type</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Pedal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pedal Supplier</t>
-  </si>
-  <si>
-    <t>sanli</t>
-  </si>
-  <si>
-    <t>Pedal Ratio</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Pedal Force efficiency</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Pedal Travel Efficiency</t>
-  </si>
-  <si>
-    <t>Pedal Type</t>
-  </si>
-  <si>
     <t>Booster</t>
   </si>
   <si>
@@ -321,12 +324,12 @@
     <t>ABS Type</t>
   </si>
   <si>
+    <t>0.93</t>
+  </si>
+  <si>
     <t>Front Axle ABS Efficiency</t>
   </si>
   <si>
-    <t>0.93</t>
-  </si>
-  <si>
     <t>Rear Axle ABS Efficiency</t>
   </si>
   <si>
@@ -348,7 +351,7 @@
     <t>Caliper Piston Diameter</t>
   </si>
   <si>
-    <t>51</t>
+    <t>51.0</t>
   </si>
   <si>
     <t># of Pistons per Caliper</t>
@@ -369,117 +372,111 @@
     <t>Caliper Hold off Pressure Torque</t>
   </si>
   <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>Caliper Hold off Pressure Volume</t>
+  </si>
+  <si>
+    <t>Caliper PV curve</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Corner Compliance</t>
+  </si>
+  <si>
+    <t>0.1371</t>
+  </si>
+  <si>
+    <t>mm^3/kPa</t>
+  </si>
+  <si>
+    <t>Displ. Intercept</t>
+  </si>
+  <si>
+    <t>601.0483</t>
+  </si>
+  <si>
+    <t>Exp. Term</t>
+  </si>
+  <si>
+    <t>0.0019</t>
+  </si>
+  <si>
+    <t>kPa^-1</t>
+  </si>
+  <si>
+    <t>Lining</t>
+  </si>
+  <si>
+    <t>Lining Supplier</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Lining Material</t>
+  </si>
+  <si>
+    <t>Low Met(#)</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>K for Output Force</t>
+  </si>
+  <si>
+    <t>0.1508</t>
+  </si>
+  <si>
+    <t>N·m/kPa</t>
+  </si>
+  <si>
+    <t>Exp. For Output Force</t>
+  </si>
+  <si>
+    <t>No Power Lining mu</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Lining Area</t>
+  </si>
+  <si>
+    <t>3430.0</t>
+  </si>
+  <si>
+    <t>Lining Wear Limit</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>Front Rotor Temperature Input</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>kPa</t>
-  </si>
-  <si>
-    <t>Caliper Hold off Pressure Volume</t>
-  </si>
-  <si>
-    <t>Caliper PV curve</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Corner Compliance</t>
-  </si>
-  <si>
-    <t>0.1371</t>
-  </si>
-  <si>
-    <t>mm^3/kPa</t>
-  </si>
-  <si>
-    <t>Displ. Intercept</t>
-  </si>
-  <si>
-    <t>601.3532</t>
-  </si>
-  <si>
-    <t>Exp. Term</t>
-  </si>
-  <si>
-    <t>0.0019</t>
-  </si>
-  <si>
-    <t>kPa^-1</t>
-  </si>
-  <si>
-    <t>Lining</t>
-  </si>
-  <si>
-    <t>Lining Supplier</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>Lining Material</t>
-  </si>
-  <si>
-    <t>Low Met(#)</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>K for Output Force</t>
-  </si>
-  <si>
-    <t>0.0673</t>
-  </si>
-  <si>
-    <t>N·m/kPa</t>
-  </si>
-  <si>
-    <t>Exp. For Output Force</t>
-  </si>
-  <si>
-    <t>1.0979</t>
-  </si>
-  <si>
-    <t>No Power Lining mu</t>
-  </si>
-  <si>
-    <t>Lining Area</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>Lining Wear Limit</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Front Rotor Temperature Input</t>
-  </si>
-  <si>
     <t>℃</t>
   </si>
   <si>
@@ -516,453 +513,444 @@
     <t>Inertia Per Corner</t>
   </si>
   <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>Kg.m^2</t>
+  </si>
+  <si>
+    <t>Rotor</t>
+  </si>
+  <si>
+    <t>Rotor Type</t>
+  </si>
+  <si>
+    <t>Vented</t>
+  </si>
+  <si>
+    <t>Rotor Manufacturer</t>
+  </si>
+  <si>
+    <t>SHAC</t>
+  </si>
+  <si>
+    <t>Rotor Material</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rotor Effective Radius</t>
+  </si>
+  <si>
+    <t>102.5</t>
+  </si>
+  <si>
+    <t>Rotor OD</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>Rotor ID</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>inner Cheek Thickness</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>outer Cheek Thickness</t>
+  </si>
+  <si>
+    <t>Rotor Thickness</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>Number of Vanes</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Vane Length</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>Vane Height</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Vane Thickness</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Working Mass</t>
+  </si>
+  <si>
+    <t>3.56258</t>
+  </si>
+  <si>
+    <t>Working Area</t>
+  </si>
+  <si>
+    <t>174204.23494</t>
+  </si>
+  <si>
+    <t>Frt Rotor Denisty</t>
+  </si>
+  <si>
+    <t>7100.0</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>CC@50</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>CC@80</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>CC@110</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>Rotor Temperature Input</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>Rotor Specific Output</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>J/(Kg.C)</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>284.87846250000007</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>0.040717</t>
+  </si>
+  <si>
+    <t>423.4694</t>
+  </si>
+  <si>
+    <t>0.002451</t>
+  </si>
+  <si>
+    <t>0.0513</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>5779.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Drum Effective Radius</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>Drum OD</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>Drum ID</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>Drum Thickness</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Drum Rib Thicknes</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>Drum Rib Width</t>
+  </si>
+  <si>
+    <t>Drum Width</t>
+  </si>
+  <si>
+    <t>2.5644</t>
+  </si>
+  <si>
+    <t>55191.49974</t>
+  </si>
+  <si>
+    <t>RR Drum Denisty</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>Thermal Performance</t>
+  </si>
+  <si>
+    <t>Single Stop Temp. Rise</t>
+  </si>
+  <si>
+    <t>Initial Velocity before Brake</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>End Velocity after Brake</t>
+  </si>
+  <si>
+    <t>Front Single Stop Temp. Rise</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>Rear Single Stop Temp. Rise</t>
+  </si>
+  <si>
+    <t>Lining Power</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>Lining Power Front @0.85g GVW</t>
+  </si>
+  <si>
+    <t>Lining Power Rear @0.85g GVW</t>
+  </si>
+  <si>
+    <t>kW/cm^2</t>
+  </si>
+  <si>
+    <t>HFT</t>
+  </si>
+  <si>
+    <t>Heat Flow Density Front Rotor @0.85g GVW</t>
+  </si>
+  <si>
+    <t>Heat Flow Density Rear Rotor @0.85g GVW</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>AMS II</t>
+  </si>
+  <si>
+    <t>AMS III</t>
+  </si>
+  <si>
+    <t>Initial Rotor Tempeture</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Deceleration on brake</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Acceleration on accelerate（WOT)</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Total Circle Times</t>
+  </si>
+  <si>
+    <t>Max Front</t>
+  </si>
+  <si>
+    <t>Max Rear</t>
+  </si>
+  <si>
+    <t>Brake Stop</t>
+  </si>
+  <si>
+    <t>@LVW Power</t>
+  </si>
+  <si>
+    <t>@LVW Nopower</t>
+  </si>
+  <si>
+    <t>@GVW Power</t>
+  </si>
+  <si>
+    <t>@GVW Nopower</t>
+  </si>
+  <si>
+    <t>initial velocity</t>
+  </si>
+  <si>
+    <t>Pedal force</t>
+  </si>
+  <si>
+    <t>Stopping Distance  requirement</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>Kg.m^2</t>
-  </si>
-  <si>
-    <t>Rotor</t>
-  </si>
-  <si>
-    <t>Rotor Type</t>
-  </si>
-  <si>
-    <t>Vented</t>
-  </si>
-  <si>
-    <t>Rotor Manufacturer</t>
-  </si>
-  <si>
-    <t>SHAC</t>
-  </si>
-  <si>
-    <t>Rotor Material</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Rotor Effective Radius</t>
-  </si>
-  <si>
-    <t>102.5</t>
-  </si>
-  <si>
-    <t>Rotor OD</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>Rotor ID</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>inner Cheek Thickness</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>outer Cheek Thickness</t>
-  </si>
-  <si>
-    <t>Rotor Thickness</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>response time</t>
+  </si>
+  <si>
+    <t>pass margin</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>decel</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>brake distance</t>
+  </si>
+  <si>
+    <t>37.35</t>
+  </si>
+  <si>
+    <t>65.13</t>
+  </si>
+  <si>
+    <t>Pedal Feel</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Preload：Pedal Force</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Onset Pedal force @0.05g</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Onset Pedal Travel @0.05g</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Number of Vanes</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Vane Length</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Vane Height</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>Vane Thickness</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Working Mass</t>
-  </si>
-  <si>
-    <t>3.56258</t>
-  </si>
-  <si>
-    <t>Working Area</t>
-  </si>
-  <si>
-    <t>174204.23494</t>
-  </si>
-  <si>
-    <t>Frt Rotor Denisty</t>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
-    <t>CC@50</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>CC@80</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>CC@110</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>CVR@50</t>
-  </si>
-  <si>
-    <t>2.064e-7</t>
-  </si>
-  <si>
-    <t>CVR@80</t>
-  </si>
-  <si>
-    <t>1.72e-7</t>
-  </si>
-  <si>
-    <t>CVR@110</t>
-  </si>
-  <si>
-    <t>1.563e-7</t>
-  </si>
-  <si>
-    <t>Rotor Temperature Input</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>Rotor Specific Output</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>J/(Kg.C)</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>284.87845</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>0.0407</t>
-  </si>
-  <si>
-    <t>423.4678</t>
-  </si>
-  <si>
-    <t>0.0025</t>
-  </si>
-  <si>
-    <t>0.0984</t>
-  </si>
-  <si>
-    <t>0.9338</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>5779</t>
-  </si>
-  <si>
-    <t>Drum</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Drum Effective Radius</t>
-  </si>
-  <si>
-    <t>Drum OD</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Drum ID</t>
-  </si>
-  <si>
-    <t>Drum Thickness</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Drum Rib Thicknes</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Drum Rib Width</t>
-  </si>
-  <si>
-    <t>Drum Width</t>
-  </si>
-  <si>
-    <t>2.5644</t>
-  </si>
-  <si>
-    <t>55191.49974</t>
-  </si>
-  <si>
-    <t>RR Drum Denisty</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-  <si>
-    <t>0.0026</t>
-  </si>
-  <si>
-    <t>Thermal Performance</t>
-  </si>
-  <si>
-    <t>Single Stop Temp. Rise</t>
-  </si>
-  <si>
-    <t>Initial Velocity before Brake</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>km/h</t>
-  </si>
-  <si>
-    <t>End Velocity after Brake</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Front Single Stop Temp. Rise</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>Rear Single Stop Temp. Rise</t>
-  </si>
-  <si>
-    <t>Lining Power</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>Lining Power Front @0.85g GVW</t>
-  </si>
-  <si>
-    <t>Lining Power Rear @0.85g GVW</t>
-  </si>
-  <si>
-    <t>kW/cm^2</t>
-  </si>
-  <si>
-    <t>HFT</t>
-  </si>
-  <si>
-    <t>Heat Flow Density Front Rotor @0.85g GVW</t>
-  </si>
-  <si>
-    <t>Heat Flow Density Rear Rotor @0.85g GVW</t>
-  </si>
-  <si>
-    <t>BET</t>
-  </si>
-  <si>
-    <t>AMS II</t>
-  </si>
-  <si>
-    <t>AMS III</t>
-  </si>
-  <si>
-    <t>Initial Rotor Tempeture</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Deceleration on brake</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>Acceleration on accelerate（WOT)</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>Total Time</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Total Circle Times</t>
-  </si>
-  <si>
-    <t>Max Front</t>
-  </si>
-  <si>
-    <t>Max Rear</t>
-  </si>
-  <si>
-    <t>Brake Stop</t>
-  </si>
-  <si>
-    <t>@LVW Power</t>
-  </si>
-  <si>
-    <t>@LVW Nopower</t>
-  </si>
-  <si>
-    <t>@GVW Power</t>
-  </si>
-  <si>
-    <t>@GVW Nopower</t>
-  </si>
-  <si>
-    <t>initial velocity</t>
-  </si>
-  <si>
-    <t>Pedal force</t>
-  </si>
-  <si>
-    <t>Stopping Distance  requirement</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>response time</t>
-  </si>
-  <si>
-    <t>pass margin</t>
-  </si>
-  <si>
-    <t>0.074</t>
-  </si>
-  <si>
-    <t>decel</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>brake distance</t>
-  </si>
-  <si>
-    <t>37.35</t>
-  </si>
-  <si>
-    <t>65.13</t>
-  </si>
-  <si>
-    <t>Pedal Feel</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Preload：Pedal Force</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>Onset Pedal force @0.05g</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Onset Pedal Travel @0.05g</t>
-  </si>
-  <si>
     <t>Normal Pedal force（Onset+0.5）</t>
   </si>
   <si>
@@ -990,16 +978,16 @@
     <t>BFI</t>
   </si>
   <si>
-    <t>26.71467023465593</t>
-  </si>
-  <si>
-    <t>27.411429539799954</t>
-  </si>
-  <si>
-    <t>27.047454322528292</t>
-  </si>
-  <si>
-    <t>52.753948442351188</t>
+    <t>26.704733034589108</t>
+  </si>
+  <si>
+    <t>24.643592220594947</t>
+  </si>
+  <si>
+    <t>0.34348583469508043</t>
+  </si>
+  <si>
+    <t>28.143565986017002</t>
   </si>
   <si>
     <t>Pedal Force @0.8g GVW</t>
@@ -1008,43 +996,43 @@
     <t>--</t>
   </si>
   <si>
-    <t>27.397526342724976</t>
+    <t>27.444794375344184</t>
   </si>
   <si>
     <t>Pedal Force @1g GVW</t>
   </si>
   <si>
-    <t>27.533870560477656</t>
+    <t>27.564218195858654</t>
   </si>
   <si>
     <t>Linearity Pedal Force</t>
   </si>
   <si>
-    <t>1.0667742824650079</t>
+    <t>0.94982334039576588</t>
   </si>
   <si>
     <t>Linearity Pedal Travel</t>
   </si>
   <si>
-    <t>0.36587601013951798</t>
+    <t>1.6779647461439418</t>
   </si>
   <si>
     <t>Tire k @ 0.7g GVW</t>
   </si>
   <si>
-    <t>0.76557791983419377</t>
+    <t>0.75842042119813047</t>
   </si>
   <si>
     <t>Tire k @ 0.8g GVW</t>
   </si>
   <si>
-    <t>0.8520925012122138</t>
+    <t>0.8411789545324927</t>
   </si>
   <si>
     <t>Tire k @ 0.9g GVW</t>
   </si>
   <si>
-    <t>0.93366261488376123</t>
+    <t>0.91896856778505642</t>
   </si>
   <si>
     <t>Max GVW Decel</t>
@@ -1056,7 +1044,7 @@
     <t>Max LVW Decel</t>
   </si>
   <si>
-    <t>0.99509997896009883</t>
+    <t>0.99509995445253052</t>
   </si>
   <si>
     <t>Brake Balance</t>
@@ -1065,13 +1053,13 @@
     <t>LVW Z Critical</t>
   </si>
   <si>
-    <t>0.67073086444815355</t>
+    <t>0.65761989091276729</t>
   </si>
   <si>
     <t>GVW Z Critical</t>
   </si>
   <si>
-    <t>1.0410695487903567</t>
+    <t>0.9725044480310574</t>
   </si>
   <si>
     <t>Booster Runout</t>
@@ -1089,7 +1077,7 @@
     <t>Front Brake Pressure @1g GVW</t>
   </si>
   <si>
-    <t>9297.8026994492102</t>
+    <t>10042.634818256165</t>
   </si>
   <si>
     <t>MPa</t>
@@ -1098,19 +1086,19 @@
     <t>Rear Brake Pressure @1g GVW</t>
   </si>
   <si>
-    <t>9775.3574606483726</t>
+    <t>9775.3295034506264</t>
   </si>
   <si>
     <t>Stroke of Master Cylinder</t>
   </si>
   <si>
-    <t>18.927641150729045</t>
+    <t>19.643206560599975</t>
   </si>
   <si>
     <t>Total Pedal Travel</t>
   </si>
   <si>
-    <t>72.803439355514286</t>
+    <t>75.32896433152932</t>
   </si>
   <si>
     <t>Thermal</t>
@@ -1119,13 +1107,13 @@
     <t>Front BET Temp. Rise</t>
   </si>
   <si>
-    <t>1964.2224000000001</t>
+    <t>1961.9055000000001</t>
   </si>
   <si>
     <t>Rear BET Temp. Rise</t>
   </si>
   <si>
-    <t>2520.9005000000002</t>
+    <t>2518.0221000000001</t>
   </si>
   <si>
     <t>AMS3</t>
@@ -1140,25 +1128,25 @@
     <t>Single Stop</t>
   </si>
   <si>
-    <t>40.967599999999997</t>
-  </si>
-  <si>
-    <t>56.914000000000001</t>
-  </si>
-  <si>
-    <t>1.1248</t>
-  </si>
-  <si>
-    <t>0.66762999999999995</t>
+    <t>99.865399999999994</t>
+  </si>
+  <si>
+    <t>138.73750000000001</t>
+  </si>
+  <si>
+    <t>1.1231</t>
+  </si>
+  <si>
+    <t>0.66661000000000004</t>
   </si>
   <si>
     <t>HFD</t>
   </si>
   <si>
-    <t>4.4296000000000002E-2</t>
-  </si>
-  <si>
-    <t>0.13980999999999999</t>
+    <t>4.4228000000000003E-2</t>
+  </si>
+  <si>
+    <t>0.1396</t>
   </si>
   <si>
     <t>Lining Life</t>
@@ -1642,7 +1630,7 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1661,7 +1649,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -1672,10 +1660,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1683,21 +1671,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1705,10 +1693,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -1716,10 +1704,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1727,10 +1715,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1738,10 +1726,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -1749,10 +1737,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -1760,10 +1748,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1771,10 +1759,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1782,24 +1770,24 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -1815,7 +1803,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -1826,10 +1814,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1837,10 +1825,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -1848,10 +1836,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1859,10 +1847,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1870,7 +1858,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -1881,10 +1869,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1916,10 +1904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1927,10 +1915,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1938,7 +1926,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
@@ -1949,7 +1937,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -1984,7 +1972,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -1998,10 +1986,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2009,10 +1997,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2020,10 +2008,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2031,10 +2019,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2042,21 +2030,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
@@ -2205,7 +2193,7 @@
         <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2216,7 +2204,7 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2224,21 +2212,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
         <v>142</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -2246,10 +2234,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -2257,10 +2245,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -2268,107 +2256,107 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
         <v>159</v>
       </c>
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
@@ -2376,58 +2364,58 @@
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
@@ -2446,7 +2434,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -2460,10 +2448,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
         <v>168</v>
-      </c>
-      <c r="B48" t="s">
-        <v>169</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -2471,10 +2459,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
         <v>170</v>
-      </c>
-      <c r="B49" t="s">
-        <v>171</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -2482,10 +2470,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
         <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>173</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -2493,10 +2481,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
         <v>174</v>
-      </c>
-      <c r="B51" t="s">
-        <v>175</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2504,10 +2492,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
         <v>176</v>
-      </c>
-      <c r="B52" t="s">
-        <v>177</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -2515,10 +2503,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>179</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -2526,10 +2514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
         <v>180</v>
-      </c>
-      <c r="B54" t="s">
-        <v>181</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -2537,10 +2525,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -2548,10 +2536,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
         <v>183</v>
-      </c>
-      <c r="B56" t="s">
-        <v>184</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -2559,10 +2547,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
         <v>185</v>
-      </c>
-      <c r="B57" t="s">
-        <v>186</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -2570,10 +2558,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
         <v>187</v>
-      </c>
-      <c r="B58" t="s">
-        <v>188</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -2581,10 +2569,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
         <v>189</v>
-      </c>
-      <c r="B59" t="s">
-        <v>190</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -2592,10 +2580,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
         <v>191</v>
-      </c>
-      <c r="B60" t="s">
-        <v>192</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -2603,10 +2591,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" t="s">
         <v>193</v>
-      </c>
-      <c r="B61" t="s">
-        <v>194</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -2614,32 +2602,32 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
         <v>195</v>
       </c>
-      <c r="B62" t="s">
-        <v>196</v>
-      </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" t="s">
         <v>197</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>198</v>
-      </c>
-      <c r="D63" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" t="s">
         <v>200</v>
-      </c>
-      <c r="B64" t="s">
-        <v>201</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -2647,10 +2635,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
         <v>202</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -2658,148 +2646,115 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
         <v>204</v>
       </c>
-      <c r="B66" t="s">
-        <v>205</v>
-      </c>
       <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2865,9 +2820,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
@@ -2908,7 +2860,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2922,10 +2874,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2933,10 +2885,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2944,10 +2896,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2955,10 +2907,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2966,21 +2918,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
@@ -3016,7 +2968,7 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -3027,7 +2979,7 @@
         <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -3038,7 +2990,7 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -3049,7 +3001,7 @@
         <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
         <v>117</v>
@@ -3060,7 +3012,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
         <v>133</v>
@@ -3093,7 +3045,7 @@
         <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -3104,7 +3056,7 @@
         <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3148,21 +3100,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" t="s">
         <v>142</v>
-      </c>
-      <c r="B23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -3170,10 +3122,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -3181,10 +3133,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -3192,166 +3144,166 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
@@ -3370,7 +3322,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -3384,10 +3336,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -3395,10 +3347,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -3406,10 +3358,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
         <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>173</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -3417,10 +3369,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -3428,10 +3380,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -3439,10 +3391,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -3450,10 +3402,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -3461,10 +3413,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -3472,10 +3424,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -3483,10 +3435,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -3494,10 +3446,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -3505,32 +3457,32 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
         <v>198</v>
-      </c>
-      <c r="D60" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -3538,10 +3490,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -3549,148 +3501,115 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D77" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3753,9 +3672,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
     <mergeCell ref="A67:A72"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -3785,12 +3701,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -3801,51 +3717,51 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3856,51 +3772,51 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" t="s">
-        <v>261</v>
-      </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -3911,46 +3827,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18">
@@ -3958,13 +3874,13 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -3972,67 +3888,67 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -4040,16 +3956,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -4057,33 +3973,33 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -4091,41 +4007,41 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
@@ -4133,16 +4049,16 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E30" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -4150,27 +4066,27 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
         <v>120</v>
@@ -4190,59 +4106,59 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -4250,19 +4166,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -4270,27 +4186,27 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
@@ -4298,13 +4214,13 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -4312,16 +4228,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E42" t="s">
         <v>52</v>
@@ -4329,16 +4245,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D43" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
@@ -4346,16 +4262,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="D44" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -4363,16 +4279,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>
@@ -4380,16 +4296,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -4397,16 +4313,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
@@ -4432,7 +4348,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
@@ -4440,19 +4356,19 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -4460,22 +4376,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
         <v>52</v>
@@ -4483,19 +4399,19 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -4503,19 +4419,19 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -4523,19 +4439,19 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -4543,19 +4459,19 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -4563,19 +4479,19 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -4583,19 +4499,19 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -4603,19 +4519,19 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -4623,19 +4539,19 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -4643,19 +4559,19 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -4663,19 +4579,19 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -4683,19 +4599,19 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -4703,19 +4619,19 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -4723,19 +4639,19 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -4743,19 +4659,19 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -4763,22 +4679,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -4786,19 +4702,19 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -4806,22 +4722,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -4829,19 +4745,19 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -4849,65 +4765,65 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G23" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
@@ -4915,19 +4831,19 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
@@ -4935,7 +4851,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28">
@@ -4943,13 +4859,13 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -4957,171 +4873,171 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -5129,13 +5045,13 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -5143,7 +5059,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
@@ -5151,13 +5067,13 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -5165,30 +5081,30 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D44" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D45" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -5196,13 +5112,13 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C46" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D46" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -5210,30 +5126,30 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D47" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -5241,13 +5157,13 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -5255,30 +5171,30 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C50" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -5286,13 +5202,13 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D52" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
@@ -5300,30 +5216,30 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D53" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D54" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -5331,13 +5247,13 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>

--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/param.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/param.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="381">
   <si>
     <t>Parameter</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Gem BNB</t>
+    <t>SGM318</t>
   </si>
   <si>
     <t>N/A</t>
@@ -42,7 +42,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>2019</t>
+    <t>2015</t>
   </si>
   <si>
     <t>Driven Axle (F/R/4WD/AWD)</t>
@@ -138,7 +138,7 @@
     <t>Front LVW Tire Static Loaded Rad.</t>
   </si>
   <si>
-    <t>292.0</t>
+    <t>292</t>
   </si>
   <si>
     <t>Rear LVW Tire Static Loaded Rad.</t>
@@ -174,627 +174,600 @@
     <t>Rolling Resistance</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Pedal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pedal Supplier</t>
+  </si>
+  <si>
+    <t>sanli</t>
+  </si>
+  <si>
+    <t>Pedal Ratio</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Pedal Force efficiency</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Pedal Travel Efficiency</t>
+  </si>
+  <si>
+    <t>Pedal Type</t>
+  </si>
+  <si>
+    <t>Booster</t>
+  </si>
+  <si>
+    <t>Booster Supplier</t>
+  </si>
+  <si>
+    <t>Booster Size</t>
+  </si>
+  <si>
+    <t>SABS</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>Booster Gain</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Total Boost Force (N) @ 67.7 kPa Vacuum</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Booster Force Efficiency</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>Booster Travel Efficiency</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>Cut-in Force</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>Force Loss - w / power</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Jump in Force</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Travel Loss</t>
+  </si>
+  <si>
+    <t>Boost Vacuum</t>
+  </si>
+  <si>
+    <t>KPa</t>
+  </si>
+  <si>
+    <t>Alt. Booster Vacuum</t>
+  </si>
+  <si>
+    <t>67.72</t>
+  </si>
+  <si>
+    <t>MasterCylinder</t>
+  </si>
+  <si>
+    <t>Master Cylinder Supplier</t>
+  </si>
+  <si>
+    <t>40.66333</t>
+  </si>
+  <si>
+    <t>M/C Bore Diameter</t>
+  </si>
+  <si>
+    <t>M/C Force Efficiency</t>
+  </si>
+  <si>
+    <t>19.05</t>
+  </si>
+  <si>
+    <t>M/C Travel Efficiency</t>
+  </si>
+  <si>
+    <t>Apply Force Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apply Travel Efficiency</t>
+  </si>
+  <si>
+    <t>ABS Unit Supplier</t>
+  </si>
+  <si>
+    <t>:BWI</t>
+  </si>
+  <si>
+    <t>ABS Type</t>
+  </si>
+  <si>
+    <t>Front Axle ABS Efficiency</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>Rear Axle ABS Efficiency</t>
+  </si>
+  <si>
+    <t>Caliper</t>
+  </si>
+  <si>
+    <t>Caliper Type (I.E. Collet)</t>
+  </si>
+  <si>
+    <t>Pin Slide</t>
+  </si>
+  <si>
+    <t>Caliper Manufacturer</t>
+  </si>
+  <si>
+    <t>Conti</t>
+  </si>
+  <si>
+    <t>Caliper Piston Diameter</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t># of Pistons per Caliper</t>
+  </si>
+  <si>
+    <t>Overall Piston Area</t>
+  </si>
+  <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>Caliper Hold off Pressure Torque</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>Caliper Hold off Pressure Volume</t>
+  </si>
+  <si>
+    <t>Caliper PV curve</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Corner Compliance</t>
+  </si>
+  <si>
+    <t>mm^3/kPa</t>
+  </si>
+  <si>
+    <t>Displ. Intercept</t>
+  </si>
+  <si>
+    <t>Exp. Term</t>
+  </si>
+  <si>
+    <t>kPa^-1</t>
+  </si>
+  <si>
+    <t>Lining</t>
+  </si>
+  <si>
+    <t>Lining Supplier</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Lining Material</t>
+  </si>
+  <si>
+    <t>Low Met(#)</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>K for Output Force</t>
+  </si>
+  <si>
+    <t>0.0673</t>
+  </si>
+  <si>
+    <t>N·m/kPa</t>
+  </si>
+  <si>
+    <t>Exp. For Output Force</t>
+  </si>
+  <si>
+    <t>1.0979</t>
+  </si>
+  <si>
+    <t>No Power Lining mu</t>
+  </si>
+  <si>
+    <t>Lining Area</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>Lining Wear Limit</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Front Rotor Temperature Input</t>
+  </si>
+  <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Front Lining Wear Specific Output</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>Inertia Per Corner</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Kg.m^2</t>
+  </si>
+  <si>
+    <t>Rotor</t>
+  </si>
+  <si>
+    <t>Rotor Type</t>
+  </si>
+  <si>
+    <t>Vented</t>
+  </si>
+  <si>
+    <t>Rotor Manufacturer</t>
+  </si>
+  <si>
+    <t>SHAC</t>
+  </si>
+  <si>
+    <t>Rotor Material</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rotor Effective Radius</t>
+  </si>
+  <si>
+    <t>102.5</t>
+  </si>
+  <si>
+    <t>Rotor OD</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Rotor ID</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>inner Cheek Thickness</t>
+  </si>
+  <si>
+    <t>outer Cheek Thickness</t>
+  </si>
+  <si>
+    <t>Rotor Thickness</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Number of Vanes</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Vane Length</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Vane Height</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Vane Thickness</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Working Mass</t>
+  </si>
+  <si>
+    <t>3.56258</t>
+  </si>
+  <si>
+    <t>Working Area</t>
+  </si>
+  <si>
+    <t>174204.23494</t>
+  </si>
+  <si>
+    <t>Frt Rotor Denisty</t>
+  </si>
+  <si>
+    <t>7100</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>CC@50</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>CC@80</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>CC@110</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>Rotor Temperature Input</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>Rotor Specific Output</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>J/(Kg.C)</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>0.0984</t>
+  </si>
+  <si>
+    <t>0.9338</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>5779</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Drum Effective Radius</t>
+  </si>
+  <si>
+    <t>Drum OD</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Drum ID</t>
+  </si>
+  <si>
+    <t>Drum Thickness</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Drum Rib Thicknes</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Drum Rib Width</t>
+  </si>
+  <si>
+    <t>Drum Width</t>
+  </si>
+  <si>
+    <t>2.5644</t>
+  </si>
+  <si>
+    <t>55191.49974</t>
+  </si>
+  <si>
+    <t>RR Drum Denisty</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>Thermal Performance</t>
+  </si>
+  <si>
+    <t>Single Stop Temp. Rise</t>
+  </si>
+  <si>
+    <t>Initial Velocity before Brake</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>End Velocity after Brake</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Pedal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pedal Supplier</t>
-  </si>
-  <si>
-    <t>sanli</t>
-  </si>
-  <si>
-    <t>Pedal Ratio</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Pedal Force efficiency</t>
+    <t>Front Single Stop Temp. Rise</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>Rear Single Stop Temp. Rise</t>
+  </si>
+  <si>
+    <t>Lining Power</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>Lining Power Front @0.85g GVW</t>
+  </si>
+  <si>
+    <t>Lining Power Rear @0.85g GVW</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>Pedal Travel Efficiency</t>
-  </si>
-  <si>
-    <t>Pedal Type</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Booster</t>
-  </si>
-  <si>
-    <t>Booster Supplier</t>
-  </si>
-  <si>
-    <t>Booster Size</t>
-  </si>
-  <si>
-    <t>SABS</t>
-  </si>
-  <si>
-    <t>inch</t>
-  </si>
-  <si>
-    <t>Booster Gain</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>Total Boost Force (N) @ 67.7 kPa Vacuum</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>Booster Force Efficiency</t>
-  </si>
-  <si>
-    <t>2360.0</t>
-  </si>
-  <si>
-    <t>Booster Travel Efficiency</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>Cut-in Force</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>Force Loss - w / power</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>Jump in Force</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>Travel Loss</t>
-  </si>
-  <si>
-    <t>Boost Vacuum</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>KPa</t>
-  </si>
-  <si>
-    <t>Alt. Booster Vacuum</t>
-  </si>
-  <si>
-    <t>67.72</t>
-  </si>
-  <si>
-    <t>MasterCylinder</t>
-  </si>
-  <si>
-    <t>Master Cylinder Supplier</t>
-  </si>
-  <si>
-    <t>40.66333</t>
-  </si>
-  <si>
-    <t>M/C Bore Diameter</t>
-  </si>
-  <si>
-    <t>M/C Force Efficiency</t>
-  </si>
-  <si>
-    <t>19.05</t>
-  </si>
-  <si>
-    <t>M/C Travel Efficiency</t>
-  </si>
-  <si>
-    <t>Apply Force Efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apply Travel Efficiency</t>
-  </si>
-  <si>
-    <t>ABS Unit Supplier</t>
-  </si>
-  <si>
-    <t>:BWI</t>
-  </si>
-  <si>
-    <t>ABS Type</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>Front Axle ABS Efficiency</t>
-  </si>
-  <si>
-    <t>Rear Axle ABS Efficiency</t>
-  </si>
-  <si>
-    <t>Caliper</t>
-  </si>
-  <si>
-    <t>Caliper Type (I.E. Collet)</t>
-  </si>
-  <si>
-    <t>Pin Slide</t>
-  </si>
-  <si>
-    <t>Caliper Manufacturer</t>
-  </si>
-  <si>
-    <t>Conti</t>
-  </si>
-  <si>
-    <t>Caliper Piston Diameter</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t># of Pistons per Caliper</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Overall Piston Area</t>
-  </si>
-  <si>
-    <t>2041.785</t>
-  </si>
-  <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>Caliper Hold off Pressure Torque</t>
-  </si>
-  <si>
-    <t>kPa</t>
-  </si>
-  <si>
-    <t>Caliper Hold off Pressure Volume</t>
-  </si>
-  <si>
-    <t>Caliper PV curve</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Corner Compliance</t>
-  </si>
-  <si>
-    <t>0.1371</t>
-  </si>
-  <si>
-    <t>mm^3/kPa</t>
-  </si>
-  <si>
-    <t>Displ. Intercept</t>
-  </si>
-  <si>
-    <t>601.0483</t>
-  </si>
-  <si>
-    <t>Exp. Term</t>
-  </si>
-  <si>
-    <t>0.0019</t>
-  </si>
-  <si>
-    <t>kPa^-1</t>
-  </si>
-  <si>
-    <t>Lining</t>
-  </si>
-  <si>
-    <t>Lining Supplier</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>Lining Material</t>
-  </si>
-  <si>
-    <t>Low Met(#)</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>K for Output Force</t>
-  </si>
-  <si>
-    <t>0.1508</t>
-  </si>
-  <si>
-    <t>N·m/kPa</t>
-  </si>
-  <si>
-    <t>Exp. For Output Force</t>
-  </si>
-  <si>
-    <t>No Power Lining mu</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Lining Area</t>
-  </si>
-  <si>
-    <t>3430.0</t>
-  </si>
-  <si>
-    <t>Lining Wear Limit</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>Front Rotor Temperature Input</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>℃</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>Front Lining Wear Specific Output</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>Inertia Per Corner</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>Kg.m^2</t>
-  </si>
-  <si>
-    <t>Rotor</t>
-  </si>
-  <si>
-    <t>Rotor Type</t>
-  </si>
-  <si>
-    <t>Vented</t>
-  </si>
-  <si>
-    <t>Rotor Manufacturer</t>
-  </si>
-  <si>
-    <t>SHAC</t>
-  </si>
-  <si>
-    <t>Rotor Material</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Rotor Effective Radius</t>
-  </si>
-  <si>
-    <t>102.5</t>
-  </si>
-  <si>
-    <t>Rotor OD</t>
-  </si>
-  <si>
-    <t>256.0</t>
-  </si>
-  <si>
-    <t>Rotor ID</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>inner Cheek Thickness</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>outer Cheek Thickness</t>
-  </si>
-  <si>
-    <t>Rotor Thickness</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>Number of Vanes</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Vane Length</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>Vane Height</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>Vane Thickness</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Working Mass</t>
-  </si>
-  <si>
-    <t>3.56258</t>
-  </si>
-  <si>
-    <t>Working Area</t>
-  </si>
-  <si>
-    <t>174204.23494</t>
-  </si>
-  <si>
-    <t>Frt Rotor Denisty</t>
-  </si>
-  <si>
-    <t>7100.0</t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
-    <t>CC@50</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>CC@80</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>CC@110</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>Rotor Temperature Input</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>Rotor Specific Output</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>J/(Kg.C)</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>284.87846250000007</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>0.040717</t>
-  </si>
-  <si>
-    <t>423.4694</t>
-  </si>
-  <si>
-    <t>0.002451</t>
-  </si>
-  <si>
-    <t>0.0513</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>5779.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>Drum</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Drum Effective Radius</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>Drum OD</t>
-  </si>
-  <si>
-    <t>216.0</t>
-  </si>
-  <si>
-    <t>Drum ID</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>Drum Thickness</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>Drum Rib Thicknes</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>Drum Rib Width</t>
-  </si>
-  <si>
-    <t>Drum Width</t>
-  </si>
-  <si>
-    <t>2.5644</t>
-  </si>
-  <si>
-    <t>55191.49974</t>
-  </si>
-  <si>
-    <t>RR Drum Denisty</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-  <si>
-    <t>0.0026</t>
-  </si>
-  <si>
-    <t>Thermal Performance</t>
-  </si>
-  <si>
-    <t>Single Stop Temp. Rise</t>
-  </si>
-  <si>
-    <t>Initial Velocity before Brake</t>
-  </si>
-  <si>
-    <t>km/h</t>
-  </si>
-  <si>
-    <t>End Velocity after Brake</t>
-  </si>
-  <si>
-    <t>Front Single Stop Temp. Rise</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>Rear Single Stop Temp. Rise</t>
-  </si>
-  <si>
-    <t>Lining Power</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>Lining Power Front @0.85g GVW</t>
-  </si>
-  <si>
-    <t>Lining Power Rear @0.85g GVW</t>
-  </si>
-  <si>
     <t>kW/cm^2</t>
   </si>
   <si>
@@ -822,9 +795,6 @@
     <t>65</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -885,9 +855,6 @@
     <t>Stopping Distance  requirement</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -948,9 +915,6 @@
     <t>Onset Pedal Travel @0.05g</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Normal Pedal force（Onset+0.5）</t>
   </si>
   <si>
@@ -978,16 +942,16 @@
     <t>BFI</t>
   </si>
   <si>
-    <t>26.704733034589108</t>
-  </si>
-  <si>
-    <t>24.643592220594947</t>
-  </si>
-  <si>
-    <t>0.34348583469508043</t>
-  </si>
-  <si>
-    <t>28.143565986017002</t>
+    <t>27.899808109012554</t>
+  </si>
+  <si>
+    <t>27.281996315648961</t>
+  </si>
+  <si>
+    <t>57.824359248942173</t>
+  </si>
+  <si>
+    <t>25.469301303150765</t>
   </si>
   <si>
     <t>Pedal Force @0.8g GVW</t>
@@ -996,43 +960,43 @@
     <t>--</t>
   </si>
   <si>
-    <t>27.444794375344184</t>
+    <t>143.7514353515248</t>
   </si>
   <si>
     <t>Pedal Force @1g GVW</t>
   </si>
   <si>
-    <t>27.564218195858654</t>
+    <t>163.5972245228638</t>
   </si>
   <si>
     <t>Linearity Pedal Force</t>
   </si>
   <si>
-    <t>0.94982334039576588</t>
+    <t>0.76851015869409212</t>
   </si>
   <si>
     <t>Linearity Pedal Travel</t>
   </si>
   <si>
-    <t>1.6779647461439418</t>
+    <t>1.6090628430751452</t>
   </si>
   <si>
     <t>Tire k @ 0.7g GVW</t>
   </si>
   <si>
-    <t>0.75842042119813047</t>
+    <t>0.7655675685032195</t>
   </si>
   <si>
     <t>Tire k @ 0.8g GVW</t>
   </si>
   <si>
-    <t>0.8411789545324927</t>
+    <t>0.85208192806409333</t>
   </si>
   <si>
     <t>Tire k @ 0.9g GVW</t>
   </si>
   <si>
-    <t>0.91896856778505642</t>
+    <t>0.93364862383275715</t>
   </si>
   <si>
     <t>Max GVW Decel</t>
@@ -1044,7 +1008,7 @@
     <t>Max LVW Decel</t>
   </si>
   <si>
-    <t>0.99509995445253052</t>
+    <t>0.9951000000000001</t>
   </si>
   <si>
     <t>Brake Balance</t>
@@ -1053,13 +1017,13 @@
     <t>LVW Z Critical</t>
   </si>
   <si>
-    <t>0.65761989091276729</t>
+    <t>0.67067980501774105</t>
   </si>
   <si>
     <t>GVW Z Critical</t>
   </si>
   <si>
-    <t>0.9725044480310574</t>
+    <t>1.041008516748883</t>
   </si>
   <si>
     <t>Booster Runout</t>
@@ -1077,7 +1041,7 @@
     <t>Front Brake Pressure @1g GVW</t>
   </si>
   <si>
-    <t>10042.634818256165</t>
+    <t>9293.5560859450889</t>
   </si>
   <si>
     <t>MPa</t>
@@ -1086,19 +1050,19 @@
     <t>Rear Brake Pressure @1g GVW</t>
   </si>
   <si>
-    <t>9775.3295034506264</t>
+    <t>9770.2657736666588</t>
   </si>
   <si>
     <t>Stroke of Master Cylinder</t>
   </si>
   <si>
-    <t>19.643206560599975</t>
+    <t>18.926262628145039</t>
   </si>
   <si>
     <t>Total Pedal Travel</t>
   </si>
   <si>
-    <t>75.32896433152932</t>
+    <t>72.798573981688378</t>
   </si>
   <si>
     <t>Thermal</t>
@@ -1107,13 +1071,13 @@
     <t>Front BET Temp. Rise</t>
   </si>
   <si>
-    <t>1961.9055000000001</t>
+    <t>1959.0945999999999</t>
   </si>
   <si>
     <t>Rear BET Temp. Rise</t>
   </si>
   <si>
-    <t>2518.0221000000001</t>
+    <t>2520.9005000000002</t>
   </si>
   <si>
     <t>AMS3</t>
@@ -1128,25 +1092,25 @@
     <t>Single Stop</t>
   </si>
   <si>
-    <t>99.865399999999994</t>
-  </si>
-  <si>
-    <t>138.73750000000001</t>
-  </si>
-  <si>
-    <t>1.1231</t>
-  </si>
-  <si>
-    <t>0.66661000000000004</t>
+    <t>100.0184</t>
+  </si>
+  <si>
+    <t>138.95009999999999</t>
+  </si>
+  <si>
+    <t>1.1248</t>
+  </si>
+  <si>
+    <t>0.66762999999999995</t>
   </si>
   <si>
     <t>HFD</t>
   </si>
   <si>
-    <t>4.4228000000000003E-2</t>
-  </si>
-  <si>
-    <t>0.1396</t>
+    <t>4.4296000000000002E-2</t>
+  </si>
+  <si>
+    <t>0.13980999999999999</t>
   </si>
   <si>
     <t>Lining Life</t>
@@ -1173,7 +1137,13 @@
     <t>Stopping Distance @ LVW Nopower</t>
   </si>
   <si>
-    <t>0.66576999999999997</t>
+    <t>87.722899999999996</t>
+  </si>
+  <si>
+    <t>-0.18542</t>
+  </si>
+  <si>
+    <t>0.48660999999999999</t>
   </si>
   <si>
     <t>Stopping Distance @ GVW Power</t>
@@ -1183,6 +1153,15 @@
   </si>
   <si>
     <t>Stopping Distance @ GVW Nopower</t>
+  </si>
+  <si>
+    <t>102.0414</t>
+  </si>
+  <si>
+    <t>-0.30314999999999998</t>
+  </si>
+  <si>
+    <t>0.41627999999999998</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1609,7 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1649,7 +1628,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -1660,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1671,21 +1650,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1693,10 +1672,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -1704,10 +1683,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1715,10 +1694,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1726,10 +1705,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -1737,10 +1716,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -1748,10 +1727,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1759,10 +1738,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1770,24 +1749,24 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -1803,7 +1782,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -1814,10 +1793,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1825,10 +1804,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -1836,10 +1815,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1847,10 +1826,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1858,7 +1837,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -1869,10 +1848,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1904,10 +1883,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1915,10 +1894,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1926,10 +1905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1937,10 +1916,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1972,7 +1951,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -1986,10 +1965,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1997,10 +1976,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2008,10 +1987,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2019,10 +1998,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2030,46 +2009,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -2077,10 +2056,10 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -2088,10 +2067,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -2099,35 +2078,35 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2143,7 +2122,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -2154,10 +2133,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -2165,10 +2144,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -2176,13 +2155,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2190,10 +2169,10 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2201,10 +2180,10 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2212,21 +2191,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -2234,10 +2213,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -2245,10 +2224,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -2256,166 +2235,166 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
@@ -2434,7 +2413,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -2448,10 +2427,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -2459,10 +2438,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -2470,10 +2449,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -2481,10 +2460,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2492,10 +2471,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -2503,10 +2482,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -2514,10 +2493,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -2525,10 +2504,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -2536,10 +2515,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -2547,10 +2526,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -2558,10 +2537,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -2569,10 +2548,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -2580,10 +2559,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -2591,10 +2570,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -2602,32 +2581,32 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -2635,10 +2614,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -2646,10 +2625,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -2657,104 +2636,104 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2839,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2874,10 +2853,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2885,10 +2864,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2896,10 +2875,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2907,10 +2886,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2918,46 +2897,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -2965,10 +2944,10 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -2976,10 +2955,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -2987,35 +2966,35 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -3031,7 +3010,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -3042,10 +3021,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -3053,10 +3032,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3064,10 +3043,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -3078,7 +3057,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -3089,7 +3068,7 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -3100,21 +3079,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -3122,10 +3101,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -3133,10 +3112,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -3144,166 +3123,166 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
@@ -3322,7 +3301,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -3336,10 +3315,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -3347,10 +3326,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -3358,10 +3337,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -3369,10 +3348,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -3380,10 +3359,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -3391,10 +3370,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -3402,10 +3381,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -3413,10 +3392,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -3424,10 +3403,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -3435,10 +3414,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -3446,10 +3425,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -3457,32 +3436,32 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -3490,10 +3469,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -3501,10 +3480,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -3512,104 +3491,104 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3701,12 +3680,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -3717,51 +3696,51 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3772,51 +3751,51 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
         <v>248</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -3827,46 +3806,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18">
@@ -3874,13 +3853,13 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -3888,67 +3867,67 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -3956,16 +3935,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -3973,33 +3952,33 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -4007,41 +3986,41 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -4049,16 +4028,16 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -4066,39 +4045,39 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -4106,59 +4085,59 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -4166,19 +4145,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -4186,27 +4165,27 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
@@ -4214,13 +4193,13 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -4228,16 +4207,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E42" t="s">
         <v>52</v>
@@ -4245,16 +4224,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
@@ -4262,16 +4241,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -4279,16 +4258,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>
@@ -4296,16 +4275,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -4313,16 +4292,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D47" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
@@ -4348,7 +4327,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
@@ -4356,19 +4335,19 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -4376,22 +4355,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G3" t="s">
         <v>52</v>
@@ -4399,19 +4378,19 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -4419,19 +4398,19 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
         <v>308</v>
       </c>
-      <c r="C5" t="s">
-        <v>320</v>
-      </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -4439,19 +4418,19 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -4459,19 +4438,19 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -4479,19 +4458,19 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -4499,19 +4478,19 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
         <v>313</v>
       </c>
-      <c r="C9" t="s">
-        <v>325</v>
-      </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -4519,19 +4498,19 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -4539,19 +4518,19 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -4559,19 +4538,19 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -4579,19 +4558,19 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -4599,19 +4578,19 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -4619,19 +4598,19 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -4639,19 +4618,19 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -4659,19 +4638,19 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E17" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -4679,22 +4658,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F18" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -4702,19 +4681,19 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -4722,22 +4701,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -4745,19 +4724,19 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E21" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -4765,65 +4744,65 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D23" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F23" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
@@ -4831,19 +4810,19 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D25" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
@@ -4851,7 +4830,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28">
@@ -4859,13 +4838,13 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -4873,171 +4852,171 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D39" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -5045,13 +5024,13 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D40" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -5059,7 +5038,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
@@ -5067,13 +5046,13 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -5081,30 +5060,30 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -5112,13 +5091,13 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -5126,30 +5105,30 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -5157,13 +5136,13 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -5171,30 +5150,30 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E50" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -5202,13 +5181,13 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
@@ -5216,30 +5195,30 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D53" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D54" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -5247,13 +5226,13 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="D55" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
